--- a/Students/abhaysanand/2project/WaterLevel/IRSensorData.xlsx
+++ b/Students/abhaysanand/2project/WaterLevel/IRSensorData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\No Fear\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ECEN489-Fall2015\Students\abhaysanand\2project\WaterLevel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="cm Vs. Raw" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Distance</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -97,7 +104,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -175,7 +181,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -300,11 +305,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-688437216"/>
-        <c:axId val="-688436128"/>
+        <c:axId val="293406240"/>
+        <c:axId val="293406632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-688437216"/>
+        <c:axId val="293406240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -361,12 +366,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-688436128"/>
+        <c:crossAx val="293406632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-688436128"/>
+        <c:axId val="293406632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -423,7 +428,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-688437216"/>
+        <c:crossAx val="293406240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -487,7 +492,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -694,11 +698,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-459785072"/>
-        <c:axId val="-459792688"/>
+        <c:axId val="293407024"/>
+        <c:axId val="293409376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-459785072"/>
+        <c:axId val="293407024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -755,12 +759,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-459792688"/>
+        <c:crossAx val="293409376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-459792688"/>
+        <c:axId val="293409376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -817,7 +821,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-459785072"/>
+        <c:crossAx val="293407024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -881,7 +885,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -961,7 +964,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1092,11 +1094,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-508816000"/>
-        <c:axId val="-508811104"/>
+        <c:axId val="293407416"/>
+        <c:axId val="293408592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-508816000"/>
+        <c:axId val="293407416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1153,12 +1155,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-508811104"/>
+        <c:crossAx val="293408592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-508811104"/>
+        <c:axId val="293408592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1215,7 +1217,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-508816000"/>
+        <c:crossAx val="293407416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1524,11 +1526,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-757984704"/>
-        <c:axId val="-757980352"/>
+        <c:axId val="293409768"/>
+        <c:axId val="293410944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-757984704"/>
+        <c:axId val="293409768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1585,12 +1587,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-757980352"/>
+        <c:crossAx val="293410944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-757980352"/>
+        <c:axId val="293410944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1647,7 +1649,425 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-757984704"/>
+        <c:crossAx val="293409768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.31761067366579177"/>
+                  <c:y val="-3.4361329833769928E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1500" baseline="0"/>
+                      <a:t>y = 32.222x</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1500" baseline="30000"/>
+                      <a:t>-1.327</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1500"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.2200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.05</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.6500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.05</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="325123184"/>
+        <c:axId val="325118088"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="325123184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="325118088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="325118088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="325123184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1856,6 +2276,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3405,6 +3865,522 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4060,6 +5036,41 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>328612</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4694,7 +5705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -4804,47 +5815,107 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>-9.896452</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>53.949330000000003</v>
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="B2">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>-0.794875</v>
+        <v>2.34</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>15.38008</v>
+        <v>2.62</v>
+      </c>
+      <c r="B4">
+        <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>3.3</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>3.5</v>
       </c>
-      <c r="C6">
-        <f>(A1*(A6^3)) + (A2*(A6^2)) + (A3*(A6)) + A4</f>
-        <v>249.16693050000001</v>
+      <c r="B7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4.05</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>6.05</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8.1</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>